--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,126 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9-20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>After powering off the aircraft,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,126 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aircraft unable to auto hover</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9-20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>After powering off the aircraft,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9-13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>31-35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32-35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
